--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1916.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1916.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.097923108209797</v>
+        <v>1.371296882629395</v>
       </c>
       <c r="B1">
-        <v>3.136551116055673</v>
+        <v>1.472806692123413</v>
       </c>
       <c r="C1">
-        <v>2.177217207271094</v>
+        <v>5.077484130859375</v>
       </c>
       <c r="D1">
-        <v>1.951712395289426</v>
+        <v>2.784038782119751</v>
       </c>
       <c r="E1">
-        <v>1.841144097757631</v>
+        <v>0.9527737498283386</v>
       </c>
     </row>
   </sheetData>
